--- a/data/interim/P4/P04_007.xlsx
+++ b/data/interim/P4/P04_007.xlsx
@@ -452,7 +452,9 @@
           <t>Івано-Франківська</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.01778009098820697</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01503008975174106</v>
+        <v>0.01538791382649968</v>
       </c>
     </row>
     <row r="8">
@@ -547,7 +549,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01808848046863001</v>
+        <v>0.02273436387320445</v>
       </c>
     </row>
     <row r="13">
@@ -607,7 +609,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01035186869762132</v>
+        <v>0.01054541583602687</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +619,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1640336420980848</v>
+        <v>0.1780985395237824</v>
       </c>
     </row>
     <row r="20">
@@ -637,7 +639,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02351306686087227</v>
+        <v>0.03111733564886141</v>
       </c>
     </row>
     <row r="22">
@@ -657,7 +659,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.034004581823927</v>
+        <v>0.03432056968096506</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +669,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01343092740462397</v>
+        <v>0.01906737644173059</v>
       </c>
     </row>
     <row r="25">
